--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-798711.5997001851</v>
+        <v>-779059.3359855941</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306643</v>
+        <v>16789668.10294315</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9668167.537397549</v>
+        <v>9713929.984417101</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>238.4960973531507</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>301.6853305217438</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -823,7 +823,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>56.63677140718717</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>7.646576123170202</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>409.8724595175689</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>269.0292677848021</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>217.8748142299687</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>250.4969096682101</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>91.45883723392443</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>124.9556697092</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>2.008513159455165</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>162.2716498381637</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.9850811523687</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,22 +1421,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>306.244525259174</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>73.99920364759151</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>24.3431845617047</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>3.423392126084693</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225774</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2002,13 +2002,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117682</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8659438253762</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>155.623074138946</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2248,16 +2248,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225751</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>57.17380082342436</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2372,7 +2372,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>60.78001549303697</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,7 +2530,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>113.7218216744508</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>20.56754178381397</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>79.58540461744398</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,13 +3247,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>107.379291304596</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>413.4103278430683</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>425.1348011514205</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>422.9244400403095</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>420.8107504562973</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>414.9625083578939</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>388.7576061259783</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>277.6126060742255</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>74.18910814101098</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>209.2403079187014</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>248.0038327191629</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>350.3645336285213</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>392.1806531060866</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>406.324791849492</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>395.5770155263527</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>181.2741855948069</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>162.2098474646169</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>155.5929659335021</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>159.4341767747797</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>166.313736560871</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>155.3091152874402</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>129.8769056295388</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>79.14710279608103</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>12.57739614469145</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>149.0227080779929</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>234.7944050203389</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>267.0224238024353</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>94.04401104267606</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>260.679893432581</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>234.3115901829313</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>216.5192270420424</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
         <v>413.2012870545404</v>
@@ -3518,7 +3518,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3563,13 +3563,13 @@
         <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477351</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432301</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934501</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
         <v>267.8502427095265</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E41" t="n">
         <v>413.2012870545404</v>
@@ -3755,7 +3755,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3800,13 +3800,13 @@
         <v>342.7550702267644</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X41" t="n">
-        <v>398.7153284477351</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934501</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V43" t="n">
         <v>267.8502427095265</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
         <v>413.2012870545404</v>
@@ -3992,7 +3992,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4037,13 +4037,13 @@
         <v>342.7550702267644</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X44" t="n">
-        <v>398.7153284477351</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277811</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934501</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
         <v>267.8502427095265</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1350.843827503015</v>
+        <v>1599.490795190364</v>
       </c>
       <c r="C2" t="n">
-        <v>922.2621532402836</v>
+        <v>1565.388726414192</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>1129.478941588636</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>695.7041967469311</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.450772987747</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.348713607462</v>
+        <v>2030.036085335214</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.102993947519</v>
+        <v>2025.790365675272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1032.065694253994</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C4" t="n">
-        <v>859.5039827372185</v>
+        <v>847.3485218817319</v>
       </c>
       <c r="D4" t="n">
-        <v>693.6259899387412</v>
+        <v>681.4705290832546</v>
       </c>
       <c r="E4" t="n">
-        <v>523.8679861894784</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>347.1609321512346</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>181.5696571770623</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>41.66748286743683</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V4" t="n">
-        <v>1451.303983658873</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W4" t="n">
-        <v>1451.303983658873</v>
+        <v>1684.540277469973</v>
       </c>
       <c r="X4" t="n">
-        <v>1451.303983658873</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y4" t="n">
-        <v>1223.884312972981</v>
+        <v>1211.728852117494</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1515.838921374201</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1481.736852598028</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1045.827067772473</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1016.092726971172</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>991.6923035150976</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>586.8368489261309</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>571.7347895458456</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y5" t="n">
-        <v>567.4890698859031</v>
+        <v>1942.138491859109</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>858.7506050139928</v>
+        <v>796.8233805927699</v>
       </c>
       <c r="C7" t="n">
-        <v>686.1888934972177</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D7" t="n">
-        <v>520.3109006987404</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>120.5233537662982</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1380.298400881886</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1050.56922373298</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1050.56922373298</v>
+        <v>1733.479829077945</v>
       </c>
       <c r="W7" t="n">
-        <v>1050.56922373298</v>
+        <v>1461.453424664236</v>
       </c>
       <c r="X7" t="n">
-        <v>1050.56922373298</v>
+        <v>1216.061669997649</v>
       </c>
       <c r="Y7" t="n">
-        <v>1050.56922373298</v>
+        <v>988.641999311757</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.61190018634</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C8" t="n">
-        <v>659.4694273697637</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D8" t="n">
-        <v>223.5596425442082</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>193.8253017429074</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>169.9982761925192</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>169.9982761925192</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>43.78042800140808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.618326081466</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>925.7778106177824</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>925.7778106177824</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>925.7778106177824</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>925.7778106177824</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>925.7778106177824</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1462.402838646065</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1999.027866674347</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427404</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.181931427404</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1948.114704300443</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1948.114704300443</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1948.114704300443</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.29965375188</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X8" t="n">
-        <v>1932.197594371595</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y8" t="n">
-        <v>1523.911470671248</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198409</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564832</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030364</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299901</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461517</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233561</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.42731178900569</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.985636755218</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>930.6106647835004</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886342</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.1924996815033</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203833</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.839284699604</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1033.761850015105</v>
+        <v>968.8969033375045</v>
       </c>
       <c r="C10" t="n">
-        <v>861.2001384983297</v>
+        <v>796.3351918207294</v>
       </c>
       <c r="D10" t="n">
-        <v>695.3221456998524</v>
+        <v>630.4571990222521</v>
       </c>
       <c r="E10" t="n">
-        <v>525.5641419505897</v>
+        <v>460.6991952729894</v>
       </c>
       <c r="F10" t="n">
-        <v>348.8570879123459</v>
+        <v>283.9921412347455</v>
       </c>
       <c r="G10" t="n">
-        <v>183.2658129381736</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36363862854808</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36363862854808</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>318.1220931996837</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>736.3319749676447</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1195.815842148558</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1638.074645306202</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2057.743894531984</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.181931427404</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427404</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2168.181931427404</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2008.9405627254</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1763.061116303856</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.628115556961</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1197.672607427391</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1033.761850015105</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1033.761850015105</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1033.761850015105</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1624.843397391378</v>
+        <v>2096.490349113413</v>
       </c>
       <c r="C11" t="n">
-        <v>1624.843397391378</v>
+        <v>1658.347876296837</v>
       </c>
       <c r="D11" t="n">
-        <v>1188.933612565822</v>
+        <v>1222.438091471281</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.933612565822</v>
+        <v>788.6633466295762</v>
       </c>
       <c r="F11" t="n">
-        <v>761.06618297503</v>
+        <v>360.795917038784</v>
       </c>
       <c r="G11" t="n">
-        <v>359.6683515982938</v>
+        <v>360.795917038784</v>
       </c>
       <c r="H11" t="n">
-        <v>70.5381970415101</v>
+        <v>71.6657624820002</v>
       </c>
       <c r="I11" t="n">
-        <v>70.5381970415101</v>
+        <v>71.6657624820002</v>
       </c>
       <c r="J11" t="n">
-        <v>505.7928844944279</v>
+        <v>506.9204499349181</v>
       </c>
       <c r="K11" t="n">
-        <v>1340.143176452606</v>
+        <v>1341.270741893096</v>
       </c>
       <c r="L11" t="n">
-        <v>1340.143176452606</v>
+        <v>2228.134552607848</v>
       </c>
       <c r="M11" t="n">
-        <v>1982.947126530457</v>
+        <v>2228.134552607848</v>
       </c>
       <c r="N11" t="n">
-        <v>1982.947126530457</v>
+        <v>2228.134552607848</v>
       </c>
       <c r="O11" t="n">
-        <v>1982.947126530457</v>
+        <v>3114.998363322601</v>
       </c>
       <c r="P11" t="n">
-        <v>2811.257001363853</v>
+        <v>3583.28812410001</v>
       </c>
       <c r="Q11" t="n">
-        <v>3357.755787322448</v>
+        <v>3583.28812410001</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075505</v>
+        <v>3583.28812410001</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259342</v>
+        <v>3499.636250283847</v>
       </c>
       <c r="T11" t="n">
-        <v>3223.190751132381</v>
+        <v>3499.636250283847</v>
       </c>
       <c r="U11" t="n">
-        <v>2963.968448449397</v>
+        <v>3240.413947600864</v>
       </c>
       <c r="V11" t="n">
-        <v>2601.351498383224</v>
+        <v>2931.076043298668</v>
       </c>
       <c r="W11" t="n">
-        <v>2196.496043794257</v>
+        <v>2931.076043298668</v>
       </c>
       <c r="X11" t="n">
-        <v>1777.353580373568</v>
+        <v>2931.076043298668</v>
       </c>
       <c r="Y11" t="n">
-        <v>1777.353580373568</v>
+        <v>2522.789919598321</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>577.837507473293</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>471.3810463099353</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>376.2907574564886</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>282.1703427834423</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>198.7865043996039</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>113.4014146657877</v>
       </c>
       <c r="H12" t="n">
-        <v>70.5381970415101</v>
+        <v>71.6657624820002</v>
       </c>
       <c r="I12" t="n">
-        <v>96.6018702019677</v>
+        <v>97.7294356424578</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681801</v>
+        <v>422.2877606086702</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086702</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086702</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086702</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086702</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>422.2877606086702</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1076.993807234394</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1617.732745866469</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1734.905523960809</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1671.450086409192</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1541.271442739794</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1364.934895739762</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1165.817377801761</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>980.4946235349555</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>825.6271877738354</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>699.1414085530562</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1058.465035206017</v>
+        <v>781.1595998996123</v>
       </c>
       <c r="C13" t="n">
-        <v>885.9033236892417</v>
+        <v>608.5978883828373</v>
       </c>
       <c r="D13" t="n">
-        <v>811.1566533381392</v>
+        <v>442.71989558436</v>
       </c>
       <c r="E13" t="n">
-        <v>641.3986495888764</v>
+        <v>272.9618918350973</v>
       </c>
       <c r="F13" t="n">
-        <v>464.6915955506326</v>
+        <v>96.25483779685344</v>
       </c>
       <c r="G13" t="n">
-        <v>299.1003205764603</v>
+        <v>96.25483779685344</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668348</v>
+        <v>71.6657624820002</v>
       </c>
       <c r="I13" t="n">
-        <v>70.5381970415101</v>
+        <v>71.6657624820002</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>158.2454476466901</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773356</v>
+        <v>433.0039022178256</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>851.2137839857867</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1310.6976511667</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1752.956454324344</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2172.625703550126</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2520.132597520468</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2688.3253723848</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.197806944309</v>
+        <v>2688.3253723848</v>
       </c>
       <c r="S13" t="n">
-        <v>2527.956438242306</v>
+        <v>2529.084003682797</v>
       </c>
       <c r="T13" t="n">
-        <v>2282.076991820761</v>
+        <v>2283.204557261252</v>
       </c>
       <c r="U13" t="n">
-        <v>2282.076991820761</v>
+        <v>2004.771556514357</v>
       </c>
       <c r="V13" t="n">
-        <v>1995.121483691192</v>
+        <v>1717.816048384788</v>
       </c>
       <c r="W13" t="n">
-        <v>1723.095079277483</v>
+        <v>1445.789643971079</v>
       </c>
       <c r="X13" t="n">
-        <v>1477.703324610896</v>
+        <v>1200.397889304491</v>
       </c>
       <c r="Y13" t="n">
-        <v>1250.283653925004</v>
+        <v>972.9782186185994</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,22 +5285,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9960463903953</v>
+        <v>790.3368563937636</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736203</v>
+        <v>617.7751448769885</v>
       </c>
       <c r="D16" t="n">
-        <v>632.556342075143</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E16" t="n">
-        <v>462.7983383258803</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0912842876365</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>120.5000093134642</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5437,7 +5437,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752035</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.60800300514</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795275</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109383</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="17">
@@ -5525,31 +5525,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>920.0973401405593</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405593</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>754.219347342082</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5674,13 +5674,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
         <v>1783.551532113124</v>
@@ -5689,34 +5689,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173582</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1856.753788625734</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1584.727384212026</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1339.335629545438</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1111.915958859546</v>
       </c>
     </row>
     <row r="20">
@@ -5789,7 +5789,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903952</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736201</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751428</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258801</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F22" t="n">
-        <v>286.0912842876363</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>120.500009313464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461862</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,25 +5999,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
         <v>4550.100609912873</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883919</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716168</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731395</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238768</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1618.529374268235</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,16 +6233,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1036.216302815309</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>863.6545912985338</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1972.872751300484</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1455.454592220188</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1228.034921534296</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937637</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>448.0171411277258</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449518</v>
+        <v>271.3100870894821</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>782.9943603411569</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>782.9943603411569</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>782.9943603411569</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>782.9943603411569</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>782.9943603411569</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1602.717526820355</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2473.704930551199</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2044.275838479057</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1617.079434397936</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1192.018070300666</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835861</v>
+        <v>772.8640214543088</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>380.1795708220072</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>99.76279700965826</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>99.76279700965826</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>535.0174844625761</v>
       </c>
       <c r="K35" t="n">
-        <v>532.8213911287357</v>
+        <v>1369.367776420754</v>
       </c>
       <c r="L35" t="n">
-        <v>1607.881357381595</v>
+        <v>2444.427742673613</v>
       </c>
       <c r="M35" t="n">
-        <v>1607.881357381595</v>
+        <v>2444.427742673613</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.19279167554</v>
+        <v>2463.997458367559</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245846</v>
+        <v>3444.177124937866</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079242</v>
+        <v>4272.486999771262</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>4818.985785729857</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4988.139850482913</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4913.201357411184</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4701.847511028657</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4451.338589090109</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4097.435019768371</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3701.292945923839</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3290.863863247585</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278743</v>
+        <v>2891.291120291672</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>605.9345420009511</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>499.4780808375933</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>404.3877919841466</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>310.2673773111003</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>226.8835389272619</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>141.4984491934458</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>99.76279700965826</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>125.8264701701159</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>450.3847951363282</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1887018024878</v>
+        <v>1105.090841762052</v>
       </c>
       <c r="L36" t="n">
-        <v>448.1887018024878</v>
+        <v>1105.090841762052</v>
       </c>
       <c r="M36" t="n">
-        <v>448.1887018024878</v>
+        <v>1105.090841762052</v>
       </c>
       <c r="N36" t="n">
-        <v>448.1887018024878</v>
+        <v>1105.090841762052</v>
       </c>
       <c r="O36" t="n">
-        <v>448.1887018024878</v>
+        <v>1105.090841762052</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1105.090841762052</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1645.829780394128</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1763.002558488467</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1699.54712093685</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1569.368477267452</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1393.03193026742</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.91441232942</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1008.591658062614</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>853.7242223014935</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>727.2384430807142</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1117.827292410496</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936675</v>
+        <v>953.9789616381562</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080663</v>
+        <v>796.8143495841136</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716797</v>
+        <v>635.7697265792856</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>467.7760532854766</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>310.8981590557389</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>179.7093654905482</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>99.76279700965826</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>194.8824666419686</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>478.1809056807247</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>904.9307719163062</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1372.95462356484</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1823.753411190105</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2251.962644883507</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2608.009523321469</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2784.742282653422</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2772.037842103228</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2621.50985414566</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2384.34378846855</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2114.624168466089</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>2019.630217917932</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1756.317194248659</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1519.638820326506</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1300.932530385049</v>
       </c>
     </row>
     <row r="38">
@@ -7148,67 +7148,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428597</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428597</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998904</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.8363978323</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790894</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790894</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
         <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
         <v>3629.919912574026</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>422.1612283578341</v>
@@ -7312,22 +7312,22 @@
         <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080654</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463109</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850147</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882654</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7336,7 +7336,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856837</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7351,10 +7351,10 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,13 +7363,13 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976692</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1279.132825422679</v>
       </c>
       <c r="L41" t="n">
-        <v>1367.171683086914</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M41" t="n">
-        <v>1367.171683086914</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,10 +7546,10 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936671</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
@@ -7558,22 +7558,22 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.051549882363</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856839</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
@@ -7631,19 +7631,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M45" t="n">
-        <v>747.004855336325</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N45" t="n">
-        <v>747.004855336325</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O45" t="n">
-        <v>1760.806465154627</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936671</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463112</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.329412385015</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7810,22 +7810,22 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
         <v>2837.795025579744</v>
@@ -7834,7 +7834,7 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>320.0858880793244</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>451.6762470063803</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>542.045482856851</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568509</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.045482856851</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153884</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568509</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>111.5535726216367</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,25 +8693,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>895.8220310250026</v>
       </c>
       <c r="M11" t="n">
-        <v>649.2969192705571</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>895.8220310250026</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>473.0199603812212</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,19 +9881,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>395.0015281256929</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>687.6096162327044</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.4273484133669</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>753.8499336302475</v>
+        <v>19.76738958984424</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497411</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>350.72306039261</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949894473</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -11060,16 +11060,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>753.8499336302457</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>996.9910187763903</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>655.9981329904114</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>271.05149362769</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>52.74625530633773</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>90.22000922290101</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142715</v>
+        <v>138.5031525665273</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>81.78272691404953</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>128.4628789093278</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>212.132339546147</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1599680048243</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>161.9268490649749</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>143.6516710866786</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.34995760698662</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>161.9268490649753</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>181.4156950686074</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>820338.6400085506</v>
+        <v>837798.7428892849</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>820338.6400085506</v>
+        <v>837798.7428892849</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>828791.5882639369</v>
+        <v>837798.7428892849</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658528.1211294925</v>
+        <v>665618.8038256735</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858015.6092571311</v>
+        <v>858015.6092571312</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858015.609257131</v>
+        <v>858015.6092571311</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858015.609257131</v>
+        <v>858015.6092571311</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>868249.2848711606</v>
+        <v>863450.1473967927</v>
       </c>
     </row>
     <row r="14">
@@ -26320,10 +26320,10 @@
         <v>160844.1959671225</v>
       </c>
       <c r="E2" t="n">
-        <v>121309.1689387271</v>
+        <v>122615.3619432212</v>
       </c>
       <c r="F2" t="n">
-        <v>158057.2752412057</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="G2" t="n">
         <v>158057.2752412057</v>
@@ -26332,7 +26332,7 @@
         <v>158057.2752412056</v>
       </c>
       <c r="I2" t="n">
-        <v>158057.2752412057</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="J2" t="n">
         <v>158057.2752412056</v>
@@ -26344,16 +26344,16 @@
         <v>158057.2752412056</v>
       </c>
       <c r="M2" t="n">
-        <v>160844.1959671226</v>
+        <v>159538.0029626286</v>
       </c>
       <c r="N2" t="n">
         <v>160844.1959671225</v>
       </c>
       <c r="O2" t="n">
+        <v>160844.1959671225</v>
+      </c>
+      <c r="P2" t="n">
         <v>160844.1959671226</v>
-      </c>
-      <c r="P2" t="n">
-        <v>160844.1959671225</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835361</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.5662728172</v>
+        <v>68167.39502082249</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.025923871</v>
+        <v>109578.5657313476</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.37042610255</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625515959</v>
+        <v>56014.44176108654</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769123</v>
+        <v>93033.5465413411</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>173889.535266443</v>
       </c>
       <c r="D4" t="n">
-        <v>193597.643071945</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>72819.33244119768</v>
+        <v>73603.41251905773</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875292</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875292</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>107302.2988178706</v>
+        <v>101485.4162786176</v>
       </c>
       <c r="N4" t="n">
         <v>107302.2988178706</v>
       </c>
       <c r="O4" t="n">
-        <v>107302.2988178705</v>
+        <v>107302.2988178706</v>
       </c>
       <c r="P4" t="n">
-        <v>107302.2988178705</v>
+        <v>107302.2988178706</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769654</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154768</v>
+        <v>54465.97948632015</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>76544.92568108613</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608974</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252865.0122670277</v>
+        <v>-310957.5624451231</v>
       </c>
       <c r="C6" t="n">
-        <v>-110673.7116073178</v>
+        <v>-87257.86386107824</v>
       </c>
       <c r="D6" t="n">
-        <v>-135913.9785808726</v>
+        <v>-87257.86386107829</v>
       </c>
       <c r="E6" t="n">
-        <v>-106540.7595268354</v>
+        <v>-73939.99869984506</v>
       </c>
       <c r="F6" t="n">
-        <v>-128156.4339372107</v>
+        <v>-124141.19808407</v>
       </c>
       <c r="G6" t="n">
-        <v>-14539.40801333975</v>
+        <v>-14562.63235272239</v>
       </c>
       <c r="H6" t="n">
-        <v>-14539.40801333979</v>
+        <v>-14562.63235272239</v>
       </c>
       <c r="I6" t="n">
-        <v>-14539.40801333971</v>
+        <v>-14562.63235272241</v>
       </c>
       <c r="J6" t="n">
-        <v>-125553.87335833</v>
+        <v>-189213.9810704286</v>
       </c>
       <c r="K6" t="n">
-        <v>-14539.40801333981</v>
+        <v>-14562.63235272244</v>
       </c>
       <c r="L6" t="n">
-        <v>-44340.77843944234</v>
+        <v>-14562.63235272241</v>
       </c>
       <c r="M6" t="n">
-        <v>-104989.9238319973</v>
+        <v>-74517.66569986579</v>
       </c>
       <c r="N6" t="n">
-        <v>-119095.365554529</v>
+        <v>-115007.2641181789</v>
       </c>
       <c r="O6" t="n">
+        <v>-21973.71757683772</v>
+      </c>
+      <c r="P6" t="n">
         <v>-21973.71757683763</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-21973.71757683772</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>8.626246936990389</v>
+      </c>
+      <c r="N2" t="n">
         <v>16.23571033874736</v>
       </c>
-      <c r="N2" t="n">
-        <v>16.23571033874734</v>
-      </c>
       <c r="O2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.045482856851</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188763</v>
+        <v>895.8220310250025</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,10 +26820,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
+        <v>1247.034962620728</v>
+      </c>
+      <c r="N4" t="n">
         <v>1219.583795947723</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1219.583795947724</v>
       </c>
       <c r="O4" t="n">
         <v>1219.583795947723</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.609463401756971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620253</v>
+        <v>228.3068244171455</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658691</v>
+        <v>382.4384723597426</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250032</v>
+        <v>197.0812836531285</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658693</v>
+        <v>354.9873056867374</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620253</v>
+        <v>228.3068244171455</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658691</v>
+        <v>382.4384723597426</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>185.0926579417336</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>99.12156952133324</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.12677360990121</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.16411526248982</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>154.5594875100822</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>57.77385650945703</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>33.58904338006374</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>330.5777375461342</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>161.2831833020159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>107.0344905314077</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>8.626246936990389</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>320.0858880793244</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>451.6762470063803</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>542.045482856851</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568509</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35249,13 +35249,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.045482856851</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153884</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568509</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>111.5535726216367</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>895.8220310250026</v>
       </c>
       <c r="M11" t="n">
-        <v>649.2969192705571</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>895.8220310250026</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>473.0199603812212</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645591</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165097</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,19 +36601,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>395.0015281256929</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>687.6096162327044</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.4273484133669</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>753.8499336302475</v>
+        <v>19.76738958984424</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>96.08047437607107</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>286.160039433087</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>431.0604709450319</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>472.751365301549</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>455.3523107325909</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>432.5345794882849</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>359.6433115534974</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>178.5179387191442</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497411</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>350.72306039261</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949894473</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -37704,10 +37704,10 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467885</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033064</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
@@ -37716,10 +37716,10 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552537</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209019</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>753.8499336302457</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>996.9910187763903</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37941,22 +37941,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900423</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>655.9981329904114</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467892</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
